--- a/mobile/问题及解决方案.xlsx
+++ b/mobile/问题及解决方案.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A904DA99-8485-4429-9F37-6425F6BFD999}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -147,11 +148,74 @@
 可能多次复用，将方法存入main.js中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>mysql模糊查询语句拼写</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>app/routers/search.js</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>var keys=req.query.keys.split(" ");//将关键字按空格切分为数组
+  var arr=[];                       
+  for(var i in keys){
+    keys[i]=`%${keys[i]}%`;     
+    arr.push(keys[i])   //将每个关键字拼接 `%${keys[i]}%`，传入数组arr
+  }
+  function getSql(keys,col){
+    var params=" "+col+" LIKE ?";
+    for(var i=1;i&lt;keys.length;i++){
+      params+=" AND "+col+" LIKE ?";
+    }
+    return params;
+  }
+pool.query(sql,arr,(err,result)=&gt;{res.send(result)})</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件触发和获取自定义扩展属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最外层父元素绑定事件，自定义属性值绑定在子元素上，事件由其之内的子元素触发，仅靠e.target和e.currentTarget访问不到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>src/views/Search.vue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以通过DOM节点查询
+html：
+&lt;div v-if="searchList.length&gt;0" class="find"@click="goDetail($event)"&gt;
+  &lt;div class="search-item"  v-for="item of searchList" :key="item.sid" :data-sid="item.sid"&gt;
+     &lt;img :src="item.imgSrc" alt=""&gt;
+     &lt;div&gt;
+       &lt;p class="b-title"&gt;{{item.title}}&lt;/p&gt;
+       &lt;p class="b-author"&gt;{{item.fAuthor}}&lt;/p&gt;
+       &lt;p class="b-summary"&gt;{{item.summary}}&lt;/p&gt;
+     &lt;/div&gt;
+  &lt;/div&gt;
+&lt;/div&gt;
+js:
+goDetail(e){
+        var path=e.path
+        for(var i=0;i&lt;path.length-5;i++){ 
+          //1.window...2.document 3.html 4.body 
+          if(path[i].classList[0]=="search-item"){
+            var sid=path[i].dataset.sid
+          }
+        }
+        this.$router.push("/Detail/"+sid);
+      }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -188,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -204,6 +268,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -223,7 +293,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -298,6 +368,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -333,6 +420,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -508,19 +612,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="23.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="23.5" style="7" customWidth="1"/>
     <col min="3" max="3" width="27.625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="62.75" style="4" customWidth="1"/>
+    <col min="4" max="4" width="70.625" style="4" customWidth="1"/>
     <col min="5" max="5" width="26.125" style="2" customWidth="1"/>
     <col min="6" max="6" width="34.875" style="2" customWidth="1"/>
   </cols>
@@ -529,7 +633,7 @@
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -549,7 +653,7 @@
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -566,7 +670,7 @@
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -583,7 +687,7 @@
       <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="6" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
@@ -597,7 +701,7 @@
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="6" t="s">
         <v>11</v>
       </c>
       <c r="C5" s="3" t="s">
@@ -610,200 +714,217 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:6" ht="189" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="5"/>
-      <c r="D6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="324" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="D7" s="2"/>
+      <c r="B7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="6"/>
       <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="6"/>
       <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="6"/>
       <c r="D10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="5"/>
+      <c r="B11" s="6"/>
       <c r="D11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
         <v>11</v>
       </c>
-      <c r="B12" s="5"/>
+      <c r="B12" s="6"/>
       <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="5"/>
+      <c r="B13" s="6"/>
       <c r="D13" s="2"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="5"/>
+      <c r="B14" s="6"/>
       <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="5"/>
+      <c r="B15" s="6"/>
       <c r="D15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="5"/>
+      <c r="B16" s="6"/>
       <c r="D16" s="2"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="5">
         <v>16</v>
       </c>
-      <c r="B17" s="5"/>
+      <c r="B17" s="6"/>
       <c r="D17" s="2"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="5"/>
+      <c r="B18" s="6"/>
       <c r="D18" s="2"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="5">
         <v>18</v>
       </c>
-      <c r="B19" s="5"/>
+      <c r="B19" s="6"/>
       <c r="D19" s="2"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="5"/>
+      <c r="B20" s="6"/>
       <c r="D20" s="2"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="5">
         <v>20</v>
       </c>
-      <c r="B21" s="5"/>
+      <c r="B21" s="6"/>
       <c r="D21" s="2"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="5">
         <v>21</v>
       </c>
-      <c r="B22" s="5"/>
+      <c r="B22" s="6"/>
       <c r="D22" s="2"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="5">
         <v>22</v>
       </c>
-      <c r="B23" s="5"/>
+      <c r="B23" s="6"/>
       <c r="D23" s="2"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="5">
         <v>23</v>
       </c>
-      <c r="B24" s="5"/>
+      <c r="B24" s="6"/>
       <c r="D24" s="2"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="5">
         <v>24</v>
       </c>
-      <c r="B25" s="5"/>
+      <c r="B25" s="6"/>
       <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="5">
         <v>25</v>
       </c>
-      <c r="B26" s="5"/>
+      <c r="B26" s="6"/>
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="5">
         <v>26</v>
       </c>
-      <c r="B27" s="5"/>
+      <c r="B27" s="6"/>
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="5">
         <v>27</v>
       </c>
-      <c r="B28" s="5"/>
+      <c r="B28" s="6"/>
       <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="5">
         <v>28</v>
       </c>
-      <c r="B29" s="5"/>
+      <c r="B29" s="6"/>
       <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="5">
         <v>29</v>
       </c>
-      <c r="B30" s="5"/>
+      <c r="B30" s="6"/>
       <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="5">
         <v>30</v>
       </c>
-      <c r="B31" s="5"/>
+      <c r="B31" s="6"/>
       <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="5">
         <v>31</v>
       </c>
-      <c r="B32" s="5"/>
+      <c r="B32" s="6"/>
       <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="5">
         <v>32</v>
       </c>
-      <c r="B33" s="5"/>
+      <c r="B33" s="6"/>
       <c r="D33" s="2"/>
     </row>
   </sheetData>

--- a/mobile/问题及解决方案.xlsx
+++ b/mobile/问题及解决方案.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A904DA99-8485-4429-9F37-6425F6BFD999}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC4F967A-977E-4B7E-9DA9-6B81F8CDCFB1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -209,6 +209,17 @@
         }
         this.$router.push("/Detail/"+sid);
       }</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除for循环方法外，获取对象属性名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> var obj = {'name' : 'Tom' , 'sex' : 'male' , 'age' : '14'};
+ var arr = Object.keys(obj);
+ console.log(arr);  // ['name','sex','age']
+ console.log(arr.length);  //3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -615,8 +626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -745,12 +756,16 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:6" ht="54" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="D8" s="2"/>
+      <c r="B8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
